--- a/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/DataFiles/MIRA_Websites_URLs.xlsx
+++ b/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/DataFiles/MIRA_Websites_URLs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="19">
   <si>
     <t>URL</t>
   </si>
@@ -42,6 +42,33 @@
   </si>
   <si>
     <t>Datenschutzerklärung</t>
+  </si>
+  <si>
+    <t>http://aposervice.bayer.de</t>
+  </si>
+  <si>
+    <t>http://radiologie.bayer.de</t>
+  </si>
+  <si>
+    <t>http://wuppertal.bayer.de</t>
+  </si>
+  <si>
+    <t>http://www.ms-gateway.de</t>
+  </si>
+  <si>
+    <t>http://www.rennie.de</t>
+  </si>
+  <si>
+    <t>http://gesundebienen.bayer.de</t>
+  </si>
+  <si>
+    <t>Not found</t>
+  </si>
+  <si>
+    <t>http://www.ilja-rogoff.de</t>
+  </si>
+  <si>
+    <t>http://www.aktren.de</t>
   </si>
 </sst>
 </file>
@@ -82,11 +109,58 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+  <cellXfs count="50">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
@@ -94,51 +168,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.28515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="15.1015625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="15.1015625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="15.1015625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="15.1015625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="15.1015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.25390625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.671875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.1015625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.1015625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.1015625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.1015625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.1015625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.1484375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -160,6 +235,212 @@
       </c>
       <c r="H2" t="b">
         <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/DataFiles/MIRA_Websites_URLs.xlsx
+++ b/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/DataFiles/MIRA_Websites_URLs.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView windowHeight="8385" windowWidth="15375" xWindow="0" yWindow="2430"/>
   </bookViews>
   <sheets>
-    <sheet name="German Privacy Info" r:id="rId3" sheetId="1"/>
+    <sheet name="German Privacy Info" r:id="rId1" sheetId="1"/>
   </sheets>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="78">
   <si>
     <t>URL</t>
   </si>
@@ -38,57 +41,234 @@
     <t>Phrase 5 Found</t>
   </si>
   <si>
-    <t>https://radiologie.bayer.de/home</t>
-  </si>
-  <si>
     <t>Datenschutzerklärung</t>
   </si>
   <si>
+    <t>http://radiologie.bayer.de</t>
+  </si>
+  <si>
+    <t>http://wuppertal.bayer.de</t>
+  </si>
+  <si>
+    <t>http://www.ms-gateway.de</t>
+  </si>
+  <si>
+    <t>http://www.rennie.de</t>
+  </si>
+  <si>
+    <t>http://gesundebienen.bayer.de</t>
+  </si>
+  <si>
+    <t>Not found</t>
+  </si>
+  <si>
+    <t>http://www.ilja-rogoff.de</t>
+  </si>
+  <si>
+    <t>http://www.aktren.de</t>
+  </si>
+  <si>
+    <t>Datenschutz</t>
+  </si>
+  <si>
+    <t>Einverstanden</t>
+  </si>
+  <si>
+    <t>Cookie Acceptance Phrase</t>
+  </si>
+  <si>
     <t>http://aposervice.bayer.de</t>
   </si>
   <si>
-    <t>http://radiologie.bayer.de</t>
-  </si>
-  <si>
-    <t>http://wuppertal.bayer.de</t>
-  </si>
-  <si>
-    <t>http://www.ms-gateway.de</t>
-  </si>
-  <si>
-    <t>http://www.rennie.de</t>
-  </si>
-  <si>
-    <t>http://gesundebienen.bayer.de</t>
-  </si>
-  <si>
-    <t>Not found</t>
-  </si>
-  <si>
-    <t>http://www.ilja-rogoff.de</t>
-  </si>
-  <si>
-    <t>http://www.aktren.de</t>
+    <t>German privacy statement name not found</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>http://www.betaferon.de</t>
+  </si>
+  <si>
+    <t>http://www.antra.de</t>
+  </si>
+  <si>
+    <t>http://www.supradyn.de</t>
+  </si>
+  <si>
+    <t>http://www.canesten.de</t>
+  </si>
+  <si>
+    <t>http://meineverhuetung.de</t>
+  </si>
+  <si>
+    <t>http://m.faktormap.de</t>
+  </si>
+  <si>
+    <t>http://frauenaerzte.de</t>
+  </si>
+  <si>
+    <t>http://jenapharm.de</t>
+  </si>
+  <si>
+    <t>http://praxisgynmanagerin.de</t>
+  </si>
+  <si>
+    <t>http://galafem.de</t>
+  </si>
+  <si>
+    <t>http://maenneraerzte.de</t>
+  </si>
+  <si>
+    <t>http://priorin.de</t>
+  </si>
+  <si>
+    <t>http://antithrombose.de</t>
+  </si>
+  <si>
+    <t>http://www.cropscience.bayer.de</t>
+  </si>
+  <si>
+    <t>http://www.aktren.de/index.html</t>
+  </si>
+  <si>
+    <t>http://www.aspirin.de/</t>
+  </si>
+  <si>
+    <t>http://www.lefax.de/</t>
+  </si>
+  <si>
+    <t>http://xofigo.de/de</t>
+  </si>
+  <si>
+    <t>http://darmstadt.bayer.de/</t>
+  </si>
+  <si>
+    <t>http://www.seresto.de/</t>
+  </si>
+  <si>
+    <t>http://www.lungenhochdruck.de</t>
+  </si>
+  <si>
+    <t>http://rivaroxaban.slides.bayer.de/</t>
+  </si>
+  <si>
+    <t>http://medinfo.bayer.de</t>
+  </si>
+  <si>
+    <t>http://iberogast.de</t>
+  </si>
+  <si>
+    <t>http://www.steigerwald.de</t>
+  </si>
+  <si>
+    <t>http://leganto.bayer.de</t>
+  </si>
+  <si>
+    <t>http://ophthalmologie.bayer.de</t>
+  </si>
+  <si>
+    <t>http://das-diabetische-auge.de</t>
+  </si>
+  <si>
+    <t>http://laif900balance.de</t>
+  </si>
+  <si>
+    <t>http://depression-behandeln-natuerlich.de</t>
+  </si>
+  <si>
+    <t>https://www.lungenhochdruck.de/</t>
+  </si>
+  <si>
+    <t>http://pallas-versicherung.de</t>
+  </si>
+  <si>
+    <t>http://webguide.bayercropscience.com</t>
+  </si>
+  <si>
+    <t>http://www.nunhems.de</t>
+  </si>
+  <si>
+    <t>http://www.beecare.bayer.com</t>
+  </si>
+  <si>
+    <t>http://clipmyfarm.de</t>
+  </si>
+  <si>
+    <t>http://www.premeo.de</t>
+  </si>
+  <si>
+    <t>http://pim.bayercropscience.de</t>
+  </si>
+  <si>
+    <t>http://pim.bayergarten.de</t>
+  </si>
+  <si>
+    <t>http://environmentalscience.bayer.de</t>
+  </si>
+  <si>
+    <t>http://digital-farming.de</t>
+  </si>
+  <si>
+    <t>http://www.cropscience.bayer.com</t>
+  </si>
+  <si>
+    <t>http://www.pflanzenschutzberater.de</t>
+  </si>
+  <si>
+    <t>http://www.monheim.bayer.de</t>
+  </si>
+  <si>
+    <t>http://agrar.bayer.de</t>
+  </si>
+  <si>
+    <t>http://mein-lieblingsmoment.de</t>
+  </si>
+  <si>
+    <t>http://www.bepanthen.de</t>
+  </si>
+  <si>
+    <t>http://pharma.bayer.com/de/home/</t>
+  </si>
+  <si>
+    <t>http://bepanthol.de</t>
+  </si>
+  <si>
+    <t>http://parasitenfrei.bayer.de</t>
+  </si>
+  <si>
+    <t>http://www.zoofach-aktuell.de</t>
+  </si>
+  <si>
+    <t>http://bitterfeld.bayer.de</t>
+  </si>
+  <si>
+    <t>http://www.baylab.bayer.de</t>
+  </si>
+  <si>
+    <t>https://www.seresto.de/</t>
+  </si>
+  <si>
+    <t>http://www.cropscience.bayer.de/de-de/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,7 +276,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -111,9 +291,93 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+  <cellXfs count="134">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -163,29 +427,354 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
+      <tableStyleElement dxfId="1" type="wholeTable"/>
+      <tableStyleElement dxfId="0" type="headerRow"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT h="25400" w="63500"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.25390625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="38.26953125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="39.78125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.1015625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.1015625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="15.1015625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="15.1015625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="15.1015625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.1484375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="25.0078125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -210,16 +799,19 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -237,18 +829,18 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -266,21 +858,21 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -295,18 +887,18 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -324,18 +916,18 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -353,18 +945,18 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -382,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
@@ -411,36 +1003,529 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/DataFiles/MIRA_Websites_URLs.xlsx
+++ b/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/DataFiles/MIRA_Websites_URLs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="9360" windowWidth="15870" xWindow="0" yWindow="2430"/>
+    <workbookView windowHeight="3195" windowWidth="12480" xWindow="0" yWindow="2430"/>
   </bookViews>
   <sheets>
     <sheet name="German Privacy Info" r:id="rId1" sheetId="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>URL</t>
   </si>
@@ -44,43 +44,25 @@
     <t>Cookie Acceptance Phrase</t>
   </si>
   <si>
+    <t>https://laif900.de</t>
+  </si>
+  <si>
+    <t>Datenschutz</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Datenschutzerklärung</t>
+  </si>
+  <si>
     <t>http://laif900balance.de</t>
   </si>
   <si>
-    <t>Datenschutz</t>
-  </si>
-  <si>
     <t>Not found</t>
   </si>
   <si>
     <t>http://depression-behandeln-natuerlich.de</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>http://initiative-gesunder-magen.de</t>
-  </si>
-  <si>
-    <t>German privacy statement name not found</t>
-  </si>
-  <si>
-    <t>http://laif900.de</t>
-  </si>
-  <si>
-    <t>http://www.influex.de</t>
-  </si>
-  <si>
-    <t>http://legaplus.bayer.de</t>
-  </si>
-  <si>
-    <t>Datenschutzerklärung</t>
-  </si>
-  <si>
-    <t>http://onkologisch.slides.bayer.de</t>
-  </si>
-  <si>
-    <t>http://phytohustil.de</t>
   </si>
 </sst>
 </file>
@@ -123,11 +105,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -466,14 +446,14 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E2" sqref="E2:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="39.66015625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="39.78125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.56640625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.1015625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.1015625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="15.1015625" collapsed="true"/>
@@ -513,7 +493,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -537,12 +517,12 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -566,183 +546,15 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="b">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25"/>

--- a/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/DataFiles/MIRA_Websites_URLs.xlsx
+++ b/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/DataFiles/MIRA_Websites_URLs.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="German Privacy Info" r:id="rId1" sheetId="1"/>
+    <sheet name="Legend" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="93">
   <si>
     <t>URL</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Cookie Acceptance Phrase</t>
   </si>
   <si>
-    <t>https://laif900.de</t>
-  </si>
-  <si>
     <t>Datenschutz</t>
   </si>
   <si>
@@ -63,6 +60,240 @@
   </si>
   <si>
     <t>http://depression-behandeln-natuerlich.de</t>
+  </si>
+  <si>
+    <t>https://www.praxisgynmanagerin.de/</t>
+  </si>
+  <si>
+    <t>German privacy statement name not found</t>
+  </si>
+  <si>
+    <t>http://agrar.bayer.de</t>
+  </si>
+  <si>
+    <t>http://mein-lieblingsmoment.de</t>
+  </si>
+  <si>
+    <t>http://www.bepanthen.de</t>
+  </si>
+  <si>
+    <t>http://pharma.bayer.com/de/home/</t>
+  </si>
+  <si>
+    <t>http://bepanthol.de</t>
+  </si>
+  <si>
+    <t>http://parasitenfrei.bayer.de</t>
+  </si>
+  <si>
+    <t>http://www.zoofach-aktuell.de</t>
+  </si>
+  <si>
+    <t>http://bitterfeld.bayer.de</t>
+  </si>
+  <si>
+    <t>http://aposervice.bayer.de</t>
+  </si>
+  <si>
+    <t>http://radiologie.bayer.de</t>
+  </si>
+  <si>
+    <t>http://wuppertal.bayer.de</t>
+  </si>
+  <si>
+    <t>http://www.ms-gateway.de</t>
+  </si>
+  <si>
+    <t>http://www.rennie.de</t>
+  </si>
+  <si>
+    <t>http://gesundebienen.bayer.de</t>
+  </si>
+  <si>
+    <t>http://www.ilja-rogoff.de</t>
+  </si>
+  <si>
+    <t>http://www.aktren.de</t>
+  </si>
+  <si>
+    <t>http://www.betaferon.de</t>
+  </si>
+  <si>
+    <t>http://www.antra.de</t>
+  </si>
+  <si>
+    <t>http://www.supradyn.de</t>
+  </si>
+  <si>
+    <t>http://www.canesten.de</t>
+  </si>
+  <si>
+    <t>http://meineverhuetung.de</t>
+  </si>
+  <si>
+    <t>http://m.faktormap.de</t>
+  </si>
+  <si>
+    <t>http://frauenaerzte.de</t>
+  </si>
+  <si>
+    <t>http://jenapharm.de</t>
+  </si>
+  <si>
+    <t>http://praxisgynmanagerin.de</t>
+  </si>
+  <si>
+    <t>http://galafem.de</t>
+  </si>
+  <si>
+    <t>http://maenneraerzte.de</t>
+  </si>
+  <si>
+    <t>http://priorin.de</t>
+  </si>
+  <si>
+    <t>http://antithrombose.de</t>
+  </si>
+  <si>
+    <t>Einverstanden</t>
+  </si>
+  <si>
+    <t>http://www.baylab.bayer.de</t>
+  </si>
+  <si>
+    <t>http://aspirin-neu-entdecken.de</t>
+  </si>
+  <si>
+    <t>http://medinfo.bayer.de</t>
+  </si>
+  <si>
+    <t>http://iberogast.de</t>
+  </si>
+  <si>
+    <t>http://www.steigerwald.de</t>
+  </si>
+  <si>
+    <t>http://leganto.bayer.de</t>
+  </si>
+  <si>
+    <t>http://ophthalmologie.bayer.de</t>
+  </si>
+  <si>
+    <t>http://das-diabetische-auge.de</t>
+  </si>
+  <si>
+    <t>http://initiative-gesunder-magen.de</t>
+  </si>
+  <si>
+    <t>http://laif900.de</t>
+  </si>
+  <si>
+    <t>http://www.influex.de</t>
+  </si>
+  <si>
+    <t>http://legaplus.bayer.de</t>
+  </si>
+  <si>
+    <t>http://onkologisch.slides.bayer.de</t>
+  </si>
+  <si>
+    <t>http://phytohustil.de</t>
+  </si>
+  <si>
+    <t>http://happytummy.rennie.de</t>
+  </si>
+  <si>
+    <t>http://schilddruesenkrebs-therapie.de</t>
+  </si>
+  <si>
+    <t>http://www.rote-karte-dem-schlaganfall.de</t>
+  </si>
+  <si>
+    <t>http://katzenwelt.bayer.de</t>
+  </si>
+  <si>
+    <t>http://elevit.info</t>
+  </si>
+  <si>
+    <t>http://rivaroxaban.slides.bayer.de</t>
+  </si>
+  <si>
+    <t>http://asteroid-studie.de</t>
+  </si>
+  <si>
+    <t>http://gynvital.de</t>
+  </si>
+  <si>
+    <t>http://fokus-knochenmetastasen.de</t>
+  </si>
+  <si>
+    <t>http://xofigo.de</t>
+  </si>
+  <si>
+    <t>http://stivarga.de</t>
+  </si>
+  <si>
+    <t>http://visusvital.de</t>
+  </si>
+  <si>
+    <t>http://www.kiel.bayer.de</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Country:</t>
+  </si>
+  <si>
+    <t>Primitive</t>
+  </si>
+  <si>
+    <t>Phrase #</t>
+  </si>
+  <si>
+    <t>Phrase 1:</t>
+  </si>
+  <si>
+    <t>Nutzung der Website</t>
+  </si>
+  <si>
+    <t>Phrase 2:</t>
+  </si>
+  <si>
+    <t>Informationen über Ihre Rechte</t>
+  </si>
+  <si>
+    <t>Phrase 3:</t>
+  </si>
+  <si>
+    <t>Profiling</t>
+  </si>
+  <si>
+    <t>Phrase 4:</t>
+  </si>
+  <si>
+    <t>Datenübertragbarkeit</t>
+  </si>
+  <si>
+    <t>Phrase 5:</t>
+  </si>
+  <si>
+    <t>Aufsichtsbehörde</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Deutschland</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Phrase Name</t>
   </si>
 </sst>
 </file>
@@ -105,13 +336,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -443,17 +670,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.66015625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="40.11328125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.56640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="39.78125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.1015625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.1015625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="15.1015625" collapsed="true"/>
@@ -493,85 +720,1833 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>14</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="9.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.40625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25"/>
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/DataFiles/MIRA_Websites_URLs.xlsx
+++ b/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/DataFiles/MIRA_Websites_URLs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="93">
   <si>
     <t>URL</t>
   </si>
@@ -336,9 +336,10 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -2471,8 +2472,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.3046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.40625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.3046875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.40625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/DataFiles/MIRA_Websites_URLs.xlsx
+++ b/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/DataFiles/MIRA_Websites_URLs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="93">
   <si>
     <t>URL</t>
   </si>
@@ -336,9 +336,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2472,8 +2474,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.3046875" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.40625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.3046875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.40625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/DataFiles/MIRA_Websites_URLs.xlsx
+++ b/Bayer-Automation/src/test/java/com/bayer/corp/Regions/Germany/GDPR/config/DataFiles/MIRA_Websites_URLs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="96">
   <si>
     <t>URL</t>
   </si>
@@ -345,9 +345,10 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -738,10 +739,10 @@
         <v>95</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
